--- a/물고기고르기/FishSelect/FishSelect/data/db/aquafishdb.xlsx
+++ b/물고기고르기/FishSelect/FishSelect/data/db/aquafishdb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9270" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>물고기 번호</t>
   </si>
@@ -65,10 +65,13 @@
     <t>물고기 부과설명</t>
   </si>
   <si>
+    <t>구피</t>
+  </si>
+  <si>
     <t>카라신과</t>
   </si>
   <si>
-    <t>육식</t>
+    <t>잡식</t>
   </si>
   <si>
     <t>온화</t>
@@ -80,16 +83,16 @@
     <t>중성</t>
   </si>
   <si>
-    <t>18도 ~ 23도</t>
-  </si>
-  <si>
-    <t>중</t>
-  </si>
-  <si>
-    <t>상</t>
-  </si>
-  <si>
-    <t>123sf</t>
+    <t>24도 ~ 28도</t>
+  </si>
+  <si>
+    <t>하</t>
+  </si>
+  <si>
+    <t>구피2</t>
+  </si>
+  <si>
+    <t>시클리드과</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,35 +492,35 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>123</v>
+      <c r="A2" t="s">
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>123</v>
+        <v>10000</v>
       </c>
       <c r="D2">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -525,8 +528,60 @@
       <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>10001</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/물고기고르기/FishSelect/FishSelect/data/db/aquafishdb.xlsx
+++ b/물고기고르기/FishSelect/FishSelect/data/db/aquafishdb.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>물고기 번호</t>
   </si>
@@ -93,6 +93,45 @@
   </si>
   <si>
     <t>시클리드과</t>
+  </si>
+  <si>
+    <t>번호</t>
+  </si>
+  <si>
+    <t>과</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>크기</t>
+  </si>
+  <si>
+    <t>먹성</t>
+  </si>
+  <si>
+    <t>성격</t>
+  </si>
+  <si>
+    <t>서식층</t>
+  </si>
+  <si>
+    <t>수질</t>
+  </si>
+  <si>
+    <t>온도</t>
+  </si>
+  <si>
+    <t>사육</t>
+  </si>
+  <si>
+    <t>번식</t>
+  </si>
+  <si>
+    <t>합사</t>
+  </si>
+  <si>
+    <t>부과</t>
   </si>
 </sst>
 </file>
@@ -434,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,6 +623,69 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>123</v>
+      </c>
+      <c r="B6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
